--- a/data/trans_dic/LAWTONB_2R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,68; 38,05</t>
+          <t>21,47; 37,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,46; 32,72</t>
+          <t>18,15; 32,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,82; 26,93</t>
+          <t>14,36; 27,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,15; 40,45</t>
+          <t>27,99; 40,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,45; 38,35</t>
+          <t>23,17; 38,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,24; 44,82</t>
+          <t>30,1; 45,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,06; 42,36</t>
+          <t>27,9; 43,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,31; 51,44</t>
+          <t>42,08; 51,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,81; 36,37</t>
+          <t>25,13; 36,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,19; 37,1</t>
+          <t>26,15; 37,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,23; 34,0</t>
+          <t>23,43; 33,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>37,25; 44,7</t>
+          <t>37,53; 45,07</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,8; 41,13</t>
+          <t>24,98; 40,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,23; 37,18</t>
+          <t>21,33; 37,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,32; 31,33</t>
+          <t>18,72; 31,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,83; 31,87</t>
+          <t>20,39; 31,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,35; 44,88</t>
+          <t>30,6; 45,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,85; 53,77</t>
+          <t>39,58; 53,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,75; 43,78</t>
+          <t>29,67; 44,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,09; 46,58</t>
+          <t>37,5; 46,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,4; 41,29</t>
+          <t>30,5; 41,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>33,76; 44,41</t>
+          <t>33,63; 44,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,53; 36,79</t>
+          <t>26,2; 36,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,65; 39,03</t>
+          <t>31,7; 39,13</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,31; 29,15</t>
+          <t>13,81; 30,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,98; 37,7</t>
+          <t>17,15; 37,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,87; 31,2</t>
+          <t>15,81; 30,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,98; 27,03</t>
+          <t>14,89; 26,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,64; 42,64</t>
+          <t>26,58; 42,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,58; 46,18</t>
+          <t>29,36; 45,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,46; 46,97</t>
+          <t>30,05; 46,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,67; 42,04</t>
+          <t>4,65; 40,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,4; 34,28</t>
+          <t>21,68; 34,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,65; 38,94</t>
+          <t>27,17; 39,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,39; 37,72</t>
+          <t>25,47; 37,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,83; 31,69</t>
+          <t>6,61; 31,49</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 27,99</t>
+          <t>15,0; 27,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,56; 34,14</t>
+          <t>19,47; 34,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,19; 23,35</t>
+          <t>11,93; 22,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,12; 26,07</t>
+          <t>17,2; 26,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,74; 40,94</t>
+          <t>28,29; 41,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,66; 40,01</t>
+          <t>27,69; 40,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,76; 41,09</t>
+          <t>27,79; 42,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,75; 43,17</t>
+          <t>34,16; 43,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,27; 33,73</t>
+          <t>24,42; 34,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,15; 35,46</t>
+          <t>26,47; 36,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,81; 32,03</t>
+          <t>22,77; 32,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,12; 34,6</t>
+          <t>28,34; 34,88</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,74; 30,53</t>
+          <t>22,83; 30,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,85</t>
+          <t>23,08; 31,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,9; 24,19</t>
+          <t>17,94; 24,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,91; 28,46</t>
+          <t>22,65; 28,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,92; 38,41</t>
+          <t>30,72; 38,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,82; 42,23</t>
+          <t>35,18; 42,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,89; 39,27</t>
+          <t>31,84; 39,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,23; 41,92</t>
+          <t>17,34; 42,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,38; 33,46</t>
+          <t>28,02; 33,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,78; 36,06</t>
+          <t>30,78; 36,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26,61; 31,63</t>
+          <t>27,09; 32,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,97; 34,9</t>
+          <t>21,06; 34,9</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>33875</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>34305</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>27778</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>50528</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>45744</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>61935</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>60138</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>83070</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>79619</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>96240</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>87916</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>133599</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>24692; 43186</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25323; 45985</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>19637; 37528</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>41446; 59597</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>34645; 57357</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>50199; 75446</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>48372; 74897</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>74962; 91854</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>66465; 95543</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>80117; 114100</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>72654; 104805</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>122434; 147028</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>48022</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>45656</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>40909</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>41744</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>68544</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>89489</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>80165</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>90897</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>116566</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>135145</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>121074</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>132642</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>36437; 58545</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33030; 58440</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>30881; 51366</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>32654; 50438</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>55900; 82914</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>75757; 102346</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>65020; 96664</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>81582; 101488</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>100223; 134786</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>116448; 153370</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>100627; 138662</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>119728; 147763</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21576</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27940</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26148</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27659</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46464</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>52916</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>54264</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>61010</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>68040</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>80856</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>80412</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>88668</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14417; 31754</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17770; 39187</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18191; 35134</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20172; 36062</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>36106; 58403</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>41399; 64473</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>42853; 66418</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16714; 145799</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>52069; 81887</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>66466; 97748</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>65612; 96448</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32719; 155972</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>28736</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>42056</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>29508</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>43074</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>71992</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>82279</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>82938</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>105910</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>100728</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>124335</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>112446</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>148984</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>20579; 37576</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>31472; 55519</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20838; 39092</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>34521; 52254</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>59062; 86094</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>67494; 98063</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>67479; 102237</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>93526; 117831</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>84479; 118162</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>107295; 146036</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>95046; 133612</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>134466; 165501</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>132209</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>149957</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>124343</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>163005</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>232744</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>286619</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>277505</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>340887</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>364953</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>436575</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>401848</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>503892</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>114697; 151761</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>129139; 173471</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>106103; 142797</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>145980; 181314</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>207894; 257407</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>261377; 315014</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>247689; 304264</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>178478; 434506</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>330432; 395194</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>400951; 471055</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>370897; 440086</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>352520; 584126</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>